--- a/similarities/split_global/harmonic_similarity_timestamps_146.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_146.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:12.020000')]</t>
+          <t>('0:00:08.240000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D#:min/A#', 'A#', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:01:21.280000', '0:01:29.420000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:00:49.280000', '0:00:53.940000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000'), ('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:02:12.800000', '0:02:44.960000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:07.300000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:00:00.360000', '0:00:38.120000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=132.8</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.100000', '0:00:18.300000')]</t>
+          <t>('0:00:07.284457', '0:00:20.438561')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=7.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=63.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G'], ['D', 'G', 'C']]</t>
+          <t>['E:maj/B', 'B:7', 'E:maj/B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb'], ['Bb', 'Eb', 'Ab']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:05.382154', '0:01:17.688730'), ('0:00:59.333356', '0:01:08.841927')]</t>
+          <t>('0:01:24.960000', '0:01:31.380000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.043000', '0:00:10.286000'), ('0:00:10.286000', '0:00:15.006000')]</t>
+          <t>('0:01:45.200000', '0:01:52.400000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=65.382154', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=59.333356']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=84.96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=10.286']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=105.2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min7', 'F:7', 'Bb', 'Bb:7/3']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min7', 'C:7', 'F', 'F:7']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:09.230000', '0:00:11.390000')]</t>
+          <t>('0:00:03.100000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:20.060000', '0:00:26.200000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.06']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:14.054444')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.599751', '0:00:06.705328')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:18.160000', '0:00:47.440000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:27.760000', '0:00:40.180000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=18.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:21.722199', '0:00:26.760929')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Eb:7']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:7']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:46.320000')]</t>
+          <t>('0:00:01.440000', '0:00:06.660000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:17.220000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.280000', '0:00:17.020000')]</t>
+          <t>('0:00:22.370000', '0:00:47.630000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:37.992880', '0:00:42.009932')]</t>
+          <t>('0:01:10.060000', '0:01:27.320000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=8.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=37.99288']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:08.960000'), ('0:00:34.240000', '0:00:40.760000')]</t>
+          <t>('0:01:02.860000', '0:01:08.740000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000'), ('0:00:33.260000', '0:00:35.860000')]</t>
+          <t>('0:00:30.020000', '0:00:32.120000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=34.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=62.86</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=33.26']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=30.02</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
